--- a/문서 관리/팀 프로젝트 용어 사전 1조(미완).xlsx
+++ b/문서 관리/팀 프로젝트 용어 사전 1조(미완).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="11460"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6480"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -21,7 +21,154 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="95">
   <x:si>
-    <x:t>ㅈee</x:t>
+    <x:t>wn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>swt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영문명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한글명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wee-Network _notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SWeeT 상담 전문성 게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SWeeT_school_board</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wee-Network 공지사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>administrator_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>consulting_guide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mind_health_test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>administrator_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>administrator_emil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wn_info</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상담 신청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wn_addr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마음건강검사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wee 소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원(사용자)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SWeeT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mem_pwd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영문약어명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mem_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mhinfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마음건강정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>notice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mhtest</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">상담 안내 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SWeeT 학교업무게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wee_infomation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mhtest_custom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>administrator</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wee-Network 소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wee-Network 위치</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Wee-Network </x:t>
   </x:si>
   <x:si>
     <x:t>Wee 센터 위치</x:t>
@@ -36,274 +183,127 @@
     <x:t>swt_school</x:t>
   </x:si>
   <x:si>
-    <x:t>SWeeT_school_board</x:t>
-  </x:si>
-  <x:si>
     <x:t>마음건강정보 추천글</x:t>
   </x:si>
   <x:si>
     <x:t>swt_cons</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Wee-Network </x:t>
-  </x:si>
-  <x:si>
-    <x:t>SWeeT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wee</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wee_infomation</x:t>
+    <x:t>Weepl 로고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>swt_board</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SWeeT_board</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wee_addr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wee_info</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wee_address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wee 공지사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wn_notice</x:t>
   </x:si>
   <x:si>
     <x:t>Weepl_logo</x:t>
   </x:si>
   <x:si>
-    <x:t>wee_info</x:t>
+    <x:t>admin_pwd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cons_guide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cons_app</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mem_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mem_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mhtest_sit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연령별 마음건강검사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mhtest_age</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상황별 마음건강검사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맞춤형 마음건강검사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mhinfo_cat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리별 건강정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mhinfo_sug</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mind_health_information_category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mind_health_test_situation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>administrator_password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>consulting_application</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mind_health_information</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wee-Network _infomation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wee-Network _address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mind_health_suggestion</x:t>
   </x:si>
   <x:si>
     <x:t>SWeeT_consulting_board</x:t>
   </x:si>
   <x:si>
-    <x:t>Wee-Network 소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wee-Network 위치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SWeeT 학교업무게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wee 공지사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wee_address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wee-Network 공지사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wn_info</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wee 소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wn_notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SWeeT 상담 전문성 게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wee_addr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weepl 로고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wn_addr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wee-Network _address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>swt_board</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wee-Network _infomation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SWeeT_board</x:t>
-  </x:si>
-  <x:si>
-    <x:t>swt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한글명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영문명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mem_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mem_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cons_app</x:t>
-  </x:si>
-  <x:si>
-    <x:t>admin_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>admin_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>admin_pwd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cons_guide</x:t>
-  </x:si>
-  <x:si>
-    <x:t>admin_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상황별 마음건강검사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mhtest_sit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리별 건강정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연령별 마음건강검사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mhtest_age</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mhinfo_cat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맞춤형 마음건강검사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>administrator_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mind_health_test</x:t>
-  </x:si>
-  <x:si>
-    <x:t>consulting_guide</x:t>
-  </x:si>
-  <x:si>
-    <x:t>administrator_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>administrator_emil</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wee-Network _notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mhtest_custom</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>administrator</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mind_health_suggestion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mind_health_information_category</x:t>
-  </x:si>
-  <x:si>
     <x:t>mind_health_test_custom</x:t>
   </x:si>
   <x:si>
-    <x:t>consulting_application</x:t>
-  </x:si>
-  <x:si>
     <x:t>mind_health_test_age</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mind_health_information</x:t>
-  </x:si>
-  <x:si>
-    <x:t>administrator_password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mind_health_test_situation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상담 신청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마음건강검사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원(사용자)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마음건강정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mem_pwd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mhinfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mem_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영문약어명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">상담 안내 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>mhtest</x:t>
-  </x:si>
-  <x:si>
-    <x:t>notice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mhinfo_sug</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -377,7 +377,10 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1054,381 +1057,381 @@
   <x:dimension ref="A1:C33"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A8" activeCellId="0" sqref="A8:A8"/>
+      <x:selection activeCell="B2" activeCellId="0" sqref="B2:B2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="25" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="22.375" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="29.375" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="25" style="2" customWidth="1"/>
+    <x:col min="2" max="2" width="22.375" style="2" customWidth="1"/>
+    <x:col min="3" max="3" width="29.375" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="2" t="s">
+      <x:c r="A1" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3" s="1" customFormat="1">
+      <x:c r="A3" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3" s="1" customFormat="1">
+      <x:c r="A4" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3" s="1" customFormat="1">
+      <x:c r="A5" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3" s="1" customFormat="1">
+      <x:c r="A6" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3" s="1" customFormat="1">
+      <x:c r="A7" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s">
+      <x:c r="C19" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3" s="1" customFormat="1">
+      <x:c r="A24" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B24" s="1" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="C1" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3">
-      <x:c r="A2" s="1" t="s">
+      <x:c r="C24" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:3">
+      <x:c r="A28" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:3">
+      <x:c r="A29" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:3">
+      <x:c r="A30" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:3">
+      <x:c r="A31" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3" customFormat="1">
-      <x:c r="A3" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3" customFormat="1">
-      <x:c r="A4" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B4" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C4" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3" customFormat="1">
-      <x:c r="A5" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B5" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="C5" t="s">
-        <x:v>93</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3" customFormat="1">
-      <x:c r="A6" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C6" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3" customFormat="1">
-      <x:c r="A7" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B7" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C7" t="s">
-        <x:v>88</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3">
-      <x:c r="A8" s="1" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C8" s="1" t="s">
-        <x:v>39</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3">
-      <x:c r="A9" s="1" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="B9" s="1" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C9" s="1" t="s">
-        <x:v>64</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:3">
-      <x:c r="A10" s="1" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="B10" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C10" s="1" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:3">
-      <x:c r="A11" s="1" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B11" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C11" s="1" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:3">
-      <x:c r="A12" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B12" s="1" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="C12" s="1" t="s">
-        <x:v>65</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:3">
-      <x:c r="A13" s="1" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="B13" s="1" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C13" s="1" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:3">
-      <x:c r="A14" s="1" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="B14" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C14" s="1" t="s">
-        <x:v>72</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:3">
-      <x:c r="A15" s="1" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="B15" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C15" s="1" t="s">
-        <x:v>60</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:3">
-      <x:c r="A16" s="1" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="B16" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="C16" s="1" t="s">
-        <x:v>59</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:3">
-      <x:c r="A17" s="1" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="B17" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C17" s="1" t="s">
+    </x:row>
+    <x:row r="32" spans="1:3">
+      <x:c r="A32" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:3">
+      <x:c r="A33" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:3">
-      <x:c r="A18" s="1" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B18" s="1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C18" s="1" t="s">
-        <x:v>69</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:3">
-      <x:c r="A19" s="1" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="B19" s="1" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C19" s="1" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:3">
-      <x:c r="A20" s="1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B20" s="1" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C20" s="1" t="s">
-        <x:v>68</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:3">
-      <x:c r="A21" s="1" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B21" s="1" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C21" s="1" t="s">
-        <x:v>70</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:3">
-      <x:c r="A22" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="B22" s="1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C22" s="1" t="s">
-        <x:v>73</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:3">
-      <x:c r="A23" s="1" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="B23" s="1" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="C23" s="1" t="s">
-        <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:3" customFormat="1">
-      <x:c r="A24" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B24" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="C24" s="1" t="s">
-        <x:v>66</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:3">
-      <x:c r="A25" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="B25" s="1" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C25" s="1" t="s">
-        <x:v>67</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:3">
-      <x:c r="A26" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B26" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C26" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:3">
-      <x:c r="A27" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B27" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C27" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:3">
-      <x:c r="A28" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B28" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C28" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:3">
-      <x:c r="A29" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B29" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C29" s="1" t="s">
-        <x:v>61</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:3">
-      <x:c r="A30" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B30" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C30" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:3">
-      <x:c r="A31" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B31" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C31" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:3">
-      <x:c r="A32" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B32" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C32" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:3">
-      <x:c r="A33" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B33" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C33" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>